--- a/field_chain_extracted_result.xlsx
+++ b/field_chain_extracted_result.xlsx
@@ -55,10 +55,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,7 +440,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>document_info</t>
         </is>
@@ -461,9 +467,9 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>91596</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,9 +494,9 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>91591</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -515,9 +521,9 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>91591</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -542,9 +548,9 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>91591</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -569,9 +575,9 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>91591</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -596,9 +602,9 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>91427</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -623,9 +629,9 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>91586</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -650,9 +656,9 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>91586</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -677,9 +683,9 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>91479</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -704,7 +710,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>2021-12-27
 91111</t>
@@ -715,7 +721,6 @@
           <t>64.9 mg/L</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
           <t>190</t>
@@ -728,7 +733,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>2024-03-11
 91495</t>
@@ -739,8 +744,6 @@
           <t>65 mg/L</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>['in 2019 was 6 g/dL with kappa free light chains of 65 mg/dL.']</t>
@@ -748,7 +751,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>2024-03-11
 91495</t>
@@ -759,7 +762,6 @@
           <t>42.66 mg/L</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
           <t>1733.29</t>
@@ -772,9 +774,9 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>91107</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -782,7 +784,6 @@
           <t>64.9 mg/L</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
           <t>190</t>
@@ -795,9 +796,9 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>91107</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -805,8 +806,6 @@
           <t>20.78 mg/L</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>['In 6/2021, he had kappa FLC of 20.78, lambda FLC']</t>
@@ -814,9 +813,9 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>91135</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -841,9 +840,9 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>91467</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -868,7 +867,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>2021-12-27
 91111</t>
@@ -896,7 +895,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>2024-02-06
 91413</t>
@@ -924,7 +923,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>2024-03-11
 91495</t>
@@ -935,8 +934,6 @@
           <t>65 mg/L</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>['M spike at initial diagnosis in 2019 was 6 g/dL with kappa free light chains of 65 mg/dL.']</t>
@@ -944,7 +941,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>2024-03-11
 91495</t>
@@ -955,8 +952,6 @@
           <t>65 mg/dL</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>['M spike at initial diagnosis in 2019 was 6 g/dL with kappa free light chains of 65 mg/dL.']</t>
@@ -964,7 +959,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>2022-02-25
 91246</t>
@@ -975,7 +970,6 @@
           <t>1.24</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
           <t>1.72</t>
@@ -988,7 +982,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>2023-12-01
 91285</t>
@@ -1004,7 +998,6 @@
           <t>&lt;0.15 mg/dL</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>['Myeloma labs 11/28/2023: KFLC 129.5 mg/dL, LFLC &lt;0.15 mg/dL.']</t>
@@ -1012,7 +1005,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>2024-02-01
 91383</t>
@@ -1023,8 +1016,6 @@
           <t>204</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>['MM markers (1/24): KFLC 204, LFLC &lt;']</t>
@@ -1032,7 +1023,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>2023-06-30
 91265</t>
@@ -1060,9 +1051,9 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>91134</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1070,7 +1061,6 @@
           <t>64.9 mg/L</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>190</t>
@@ -1083,9 +1073,9 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>91134</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1110,9 +1100,9 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>91495</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1120,8 +1110,6 @@
           <t>65 mg/L</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>['M spike at initial diagnosis in 2019 was 6 g/dL with kappa free light chains of 65 mg/dL.']</t>
@@ -1129,9 +1117,9 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>91285</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1144,7 +1132,6 @@
           <t>&lt;0.15 mg/dL</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>['Myeloma labs 11/28/2023: KFLC 129.5 mg/dL, LFLC &lt;0.15 mg/dL.']</t>
@@ -1152,9 +1139,9 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>91596</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1167,7 +1154,6 @@
           <t>&lt;1.61 mg/dL</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa.']</t>
@@ -1175,63 +1161,63 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>91459</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>242 mg/dL</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>&lt;0.15 mg/dL</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>&gt;1733.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>['MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>91425</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>204 mg/dL</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>&lt;0.15 mg/dL</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>&gt;1456.71</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>242 mg/dL</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>&lt;0.15 mg/dL</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>&gt;1733.29</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>['MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-    </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>91568</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1256,9 +1242,9 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>91596</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1283,9 +1269,9 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>91085</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1310,7 +1296,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>2024-03-11
 91495</t>
@@ -1321,10 +1307,9 @@
           <t>42.66 mg/L</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>&gt;1733.29</t>
+          <t>1733.29</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1334,7 +1319,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>2024-04-23
 91592</t>
@@ -1362,7 +1347,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>2021-12-23
 91107</t>
@@ -1373,7 +1358,6 @@
           <t>1.24 mg/L</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
           <t>1.72</t>
@@ -1386,7 +1370,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>2021-11-13
 91085</t>
@@ -1414,7 +1398,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>2021-12-15
 91091</t>
@@ -1442,7 +1426,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>2024-03-24
 91557</t>
@@ -1455,12 +1439,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>&lt;0.15 mg/L</t>
+          <t>&lt; 0.15 mg/L</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>&gt;1733.29</t>
+          <t>1733.29</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1470,7 +1454,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>2024-01-26
 91342</t>
@@ -1483,12 +1467,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>&lt;0.15 mg/L</t>
+          <t>&lt; 0.15 mg/L</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>&gt;1456.71</t>
+          <t>1456.71</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1498,693 +1482,690 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2024-02-03
-91395</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>204 mg/L</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>&lt;0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>&gt;1456.71</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>2023-11-27
 91273</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>65 mg/L</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>0.34 mg/L</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>190.88</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>['M spike at 6 g/dL, KFLC 65 mg/dL, LFLC 0.34 mg/dL, and K/L 190.88.']</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>2023-11-27
 91273</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1.34 mg/L</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0.92 mg/L</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>['Myeloma markers on 10/8/2019 had all improved: M spike 0.3 g/dL, KFLC 1.34 mg/dL, LFLC 0.92 mg/dL, K/L 1.46.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>2021-12-15
+91091</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1.34 mg/L</t>
+          <t>1.45 mg/L</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0.92 mg/L</t>
+          <t>0.73 mg/L</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['Myeloma markers on 10/8/2019 had all improved: M spike 0.3 g/dL, KFLC 1.34 mg/dL, LFLC 0.92 mg/dL, K/L 1.46.']</t>
+          <t>['His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99.']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>2021-12-15
+91091</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>4.48 mg/L</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0.7 mg/L</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>['On 09/01/21 M-spike was 3.1, with Serum kappa down to 4.48 with a lambda 0.7, kappa/lambda ratio of 6.31.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>2021-12-15
+91091</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>64.9 mg/L</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.34 mg/L</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>['At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>2022-02-22
+91240</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>65 mg/L</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>0.34 mg/L</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>['Baseline free light chains (per notes): Kappa 65, Lambda 0.34, Kappa/Lambda 190']</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1.45 mg/L</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>0.73 mg/L</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>['His most recent labs on 12/1/21 show an M-spike of 0.2, kappa FLC 1.45, lambda FLC 0.73, and kappa/lambda ratio of 1.99.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>91383</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>204 mg/L</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>&gt;1456.71</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>91403</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>204 mg/L</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>&gt;1456.71</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="3" t="inlineStr">
+        <is>
+          <t>91330</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>204 mg/L</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>&gt;1456.71</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="3" t="inlineStr">
+        <is>
+          <t>91489</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>242 mg/L</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>&gt;1733.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>['MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
+        <is>
+          <t>91577</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>16.18 mg/L</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>&gt;115.57</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>['MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57. IgG Kappa M spike 0.1.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>91158</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1.24 mg/L</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0.72 mg/L</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>['12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3']</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="3" t="inlineStr">
+        <is>
+          <t>91098</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>64.9 mg/L</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0.34 mg/L</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>['At that time, he had an M-spike of 6, calcium of 9.7, an IgG of 5610, kappa FLC 64.9, lambda FLC 0.34, kappa/lambda ratio of 190, total protein 10.7, albumin of 2.3, vitamin D of 10.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>['At diagnosis M-spike was 6, Hgb 8.4, calcium of 9.7, albumin 2.3, adjusted calcium level 11.1, creatinine 0.99. IgG of 5610, kappa FLC 64.9, lappa/lambda ratio of 190, total protein 10.7.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>91482</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>242 mg/L</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>&gt;1733.29</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>['MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="3" t="inlineStr">
+        <is>
+          <t>91495</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>42.66 mg/L</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>&gt;1733.29</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>['Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>91577</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>16.18 mg/L</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>&gt;115.57</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>['Pre-CAR T evaluation: MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57. IgG']</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
+        <is>
+          <t>91443</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>204 mg/L</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1456.71</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="3" t="inlineStr">
+        <is>
+          <t>91561</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>42.66 mg/L</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1733.29</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>['Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
+        <is>
+          <t>91561</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>242 mg/L</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1733.29</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>['MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="inlineStr">
+        <is>
+          <t>91591</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>129.54 mg/dL</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>15 mg/dL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>914.29</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>['11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29. SPEP with IgG kappa monoclonal component, M-spike 2.0g/dL; kappa monoclonal free light chain, M-spike too small']</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="3" t="inlineStr">
+        <is>
+          <t>91124</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1.24 mg/L</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>['Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="3" t="inlineStr">
+        <is>
+          <t>91427</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>204 mg/L</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>&gt;1456.71</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>204 mg/L</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>&gt;1456.71</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>204 mg/L</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>&gt;1456.71</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>91273</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>65 mg/dL</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.34 mg/dL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>190.88</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>['Myeloma markers on 3/24/2019 included an SPEP which showed an IgG kappa M spike at 6 g/dL, KFLC 65 mg/dL, LFLC 0.34 mg/dL, and K/L 190.88.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>91596</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>&lt;0.06 mg/dL</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>&lt;1.61 mg/dL</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>91482</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>242 mg/L</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>&gt;1733.29</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>['MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
+    <row r="68">
+      <c r="A68" s="3" t="inlineStr">
+        <is>
+          <t>91482</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>16.18 mg/L</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>&gt;115.57</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>['MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57. IgG Kappa M spike 0.1.']</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1.24 mg/L</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>0.72 mg/L</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>['12/15: SPEP IgG kappa M spike of 0.1, Kappa light chain 1.24, lambda light chain 0.72. Kappa/ lambda ratio 1.72, beta 2 microglobulin 1.3']</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>64.9 mg/L</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>['At diagnosis M-spike was 6, Hgb 8.4, calcium of 9.7, albumin 2.3, adjusted calcium level 11.1, creatinine 0.99. IgG of 5610, kappa FLC 64.9, lappa/lambda ratio of 190, total protein 10.7.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>242 mg/L</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>&gt;1733.29</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>['MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>42.66 mg/L</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>&gt;1733.29</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>['Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)']</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>16.18 mg/L</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>&gt;115.57</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>['MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57. IgG']</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2024-02-13
-91443</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>204 mg/L</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>1456.71</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>42.66 mg/L</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1733.29</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>['Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)']</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>242 mg/L</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>1733.29</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>['MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>129.54 mg/dL</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>15 mg/dL</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>914.29</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>['11/28/23: kappa free light chain (KFLC) 129.54mg /dL, lambda free light chain (LFLC) 15mg /dL, kappa/lambda ratio &gt;914.29. SPEP with IgG kappa monoclonal component, M-spike 2.0g/dL; kappa monoclonal free light chain, M-spike too small']</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1.24 mg/L</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>['Labs 12/15 show M-spike 0.1, KFLC 1.24, K/L ratio 1.72. Bone marrow 12/17 is negative by flow.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>204 mg/L</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>&gt;1456.71</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>65 mg/dL</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>0.34 mg/dL</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>190.88</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>['Myeloma markers on 3/24/2019 included an SPEP which showed an IgG kappa M spike at 6 g/dL, KFLC 65 mg/dL, LFLC 0.34 mg/dL, and K/L 190.88.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>&lt;0.06 mg/dL</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>&lt;1.61 mg/dL</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>['Labs from 4/8/2024: Kappa &lt;0.06 mg/dL, Lambda &lt;1.61 mg/dL, SPEP with M-spike 0.3 g/dL, IgG kappa.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>242 mg/L</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>&gt;1733.29</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>['MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>16.18 mg/L</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>&gt;115.57</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>['MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57. IgG Kappa M spike 0.1.']</t>
-        </is>
-      </c>
-    </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>2024-03-11
 91495</t>
@@ -2195,10 +2176,9 @@
           <t>42.66 mg/L</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1733.29</t>
+          <t>&gt; 1733.29</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2208,7 +2188,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="3" t="inlineStr">
         <is>
           <t>2024-01-27
 91344</t>
@@ -2226,7 +2206,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1733.29</t>
+          <t>&gt;1733.29</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2236,7 +2216,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="3" t="inlineStr">
         <is>
           <t>2022-01-07
 91124</t>
@@ -2264,143 +2244,140 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>91495</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>65 mg/L</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>['M spike at initial diagnosis in 2019 was 6 g/dL with kappa free light chains of 65 mg/dL.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>91357</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>&lt; 0.15</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>&gt;1456.71</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-29
+91467</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>242 mg/L</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>&gt;1733.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>['repeat leukapheresis on 1/23  - MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="3" t="inlineStr">
+        <is>
+          <t>2024-02-29
+91467</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>16.18 mg/L</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>&lt; 0.15 mg/L</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>&gt; 115.57</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>['Pre-CAR T evaluation:  MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57.']</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="inlineStr">
         <is>
           <t>2024-03-11
 91495</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>65 mg/L</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>['M spike at initial diagnosis in 2019 was 6 g/dL with kappa free light chains of 65 mg/dL.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2024-01-29
-91357</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>204 mg/L</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>&gt;1456.71</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>['MM markers (1/24): KFLC 204, LFLC &lt; 0.15, ratio &gt;1456.71, M spike 2.6 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>242 mg/L</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>&gt;1733.29</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>['repeat leukapheresis on 1/23  - MM markers (1/16): KFLC 242, LFLC &lt; 0.15, ratio &gt;1733.29, M spike 2.8 IgG kappa, Kappa free light chain TSTQ.']</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>42.66 mg/L</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>&gt; 1733.29</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>['Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>2024-03-14
+91512</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>16.18 mg/L</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>&lt; 0.15 mg/L</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>&gt; 115.57</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>['Pre-CAR T evaluation:  MM labs (2/22): KFLC 16.18, LFLC &lt; 0.15, ratio &gt; 115.57. IgG Kappa M spike 0.1  24h urine: CrCL 145, +Kappa BJP']</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>42.66 mg/L</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>&gt; 1733.29</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>['Pre therapy 1/16/2024: Kappa free light chains to 42.66, ratio &gt; 1733.29, 2 and spikes on SPEP = 2.8 IgG kappa, kappa monoclonal free light chain too small to quantify, IgG 3393 (1/24/24)']</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>16.18 mg/L</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>['S/p bridging isatuximab/carfilzomib/dex with no response &gt;&gt; Talequetamab C1 (1/24-2/16/24) with M spike 2.8--&gt;1, KFLC 42.6--&gt;16.18']</t>
@@ -2408,7 +2385,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="3" t="inlineStr">
         <is>
           <t>2024-01-31
 91377</t>
@@ -2426,7 +2403,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>1456.71</t>
+          <t>&gt;1456.71</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2436,7 +2413,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="3" t="inlineStr">
         <is>
           <t>2021-11-13
 91085</t>
@@ -2447,7 +2424,6 @@
           <t>24.67 mg/L</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
           <t>137.06</t>
@@ -2460,7 +2436,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="3" t="inlineStr">
         <is>
           <t>2021-11-13
 91085</t>
@@ -2471,7 +2447,6 @@
           <t>30.75 mg/L</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
           <t>16184</t>
@@ -2484,7 +2459,7 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="3" t="inlineStr">
         <is>
           <t>2024-01-24
 91325</t>
@@ -2512,7 +2487,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="3" t="inlineStr">
         <is>
           <t>2024-03-24
 91557</t>
@@ -2540,7 +2515,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="3" t="inlineStr">
         <is>
           <t>2024-03-19
 91529</t>
@@ -2551,19 +2526,16 @@
           <t>42.6 mg/L</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['Talequetamab C1 (1/24-2/16/24) with M spike 2.8--&gt;1, KFLC 42.6--&gt;16.18.']</t>
+          <t>['S/p bridging isatuximab/carfilzomib/dex with no response &gt;&gt; Talequetamab C1 (1/24-2/16/24) with M spike 2.8--&gt;1, KFLC 42.6--&gt;16.18']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2024-03-10
-91489</t>
+      <c r="A84" s="3" t="inlineStr">
+        <is>
+          <t>91489</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2588,10 +2560,9 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2024-03-25
-91561</t>
+      <c r="A85" s="3" t="inlineStr">
+        <is>
+          <t>91561</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2616,9 +2587,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A86" s="3" t="inlineStr">
+        <is>
+          <t>2021-12-23
+91107</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2643,9 +2615,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A87" s="3" t="inlineStr">
+        <is>
+          <t>2024-01-30
+91369</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2670,13 +2643,12 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
+      <c r="A88" s="3" t="inlineStr">
+        <is>
+          <t>2024-01-24
+91323</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
           <t>&gt;1733.29</t>
@@ -2689,7 +2661,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="3" t="inlineStr">
         <is>
           <t>2022-01-07
 91124</t>
@@ -2700,7 +2672,6 @@
           <t>1.24 mg/L</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
           <t>1.72</t>
@@ -2713,7 +2684,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="3" t="inlineStr">
         <is>
           <t>2024-04-01
 91568</t>
@@ -2741,7 +2712,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="3" t="inlineStr">
         <is>
           <t>2024-04-01
 91568</t>
@@ -2769,7 +2740,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="3" t="inlineStr">
         <is>
           <t>2024-01-28
 91350</t>
@@ -2797,9 +2768,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A93" s="3" t="inlineStr">
+        <is>
+          <t>2024-01-26
+91342</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2824,9 +2796,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Unknown</t>
+      <c r="A94" s="3" t="inlineStr">
+        <is>
+          <t>2022-02-22
+91240</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2851,7 +2824,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="3" t="inlineStr">
         <is>
           <t>2024-03-20
 91537</t>
@@ -2862,16 +2835,14 @@
           <t>42.6 mg/L</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['Talequetamab C1 (1/24-2/16/24) with M spike 2.8--&gt;1, KFLC 42.6--&gt;16.18']</t>
+          <t>['S/p bridging isatuximab/carfilzomib/dex with no response &gt;&gt; Talequetamab C1 (1/24-2/16/24) with M spike 2.8--&gt;1, KFLC 42.6--&gt;16.18']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="3" t="inlineStr">
         <is>
           <t>2024-03-20
 91537</t>
@@ -2882,11 +2853,9 @@
           <t>16.18 mg/L</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['Talequetamab C1 (1/24-2/16/24) with M spike 2.8--&gt;1, KFLC 42.6--&gt;16.18']</t>
+          <t>['S/p bridging isatuximab/carfilzomib/dex with no response &gt;&gt; Talequetamab C1 (1/24-2/16/24) with M spike 2.8--&gt;1, KFLC 42.6--&gt;16.18']</t>
         </is>
       </c>
     </row>
